--- a/data/long_bre/P24_4-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_4-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>242,36%</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>204,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>56,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-38,72%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 20,84</t>
+          <t>3,59; 18,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 9,41</t>
+          <t>-10,13; 10,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 14,97</t>
+          <t>-3,96; 14,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,91; 840,33</t>
+          <t>-19,99; 3,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,65; 94,98</t>
+          <t>21,62; 781,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 285,94</t>
+          <t>-45,93; 100,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-26,61; 253,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-76,84; 48,46</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,84</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>-16,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,51%</t>
+          <t>-0,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-7,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,73; -2,67</t>
+          <t>-23,74; -1,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 9,08</t>
+          <t>-12,31; 14,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 4,75</t>
+          <t>-17,66; 7,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,61; -4,03</t>
+          <t>-12,3; 22,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 13,55</t>
+          <t>-27,67; -2,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 6,76</t>
+          <t>-15,58; 22,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,97; 11,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-17,52; 47,47</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>-1,52%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-4,34%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 10,26</t>
+          <t>-7,18; 10,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 13,37</t>
+          <t>-15,9; 8,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 9,75</t>
+          <t>-10,66; 8,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 109,86</t>
+          <t>-14,11; 17,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 280,77</t>
+          <t>-43,0; 114,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 115,02</t>
+          <t>-71,16; 132,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-52,54; 88,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-42,34; 125,88</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 10,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 12,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 373,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 384,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 167,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,14</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,41%</t>
+          <t>93,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>156,18%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 2,79</t>
+          <t>-2,07; 11,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 4,98</t>
+          <t>-1,08; 13,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,9; -1,45</t>
+          <t>-3,3; 12,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 3,52</t>
+          <t>0,44; 17,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 6,86</t>
+          <t>-34,33; 420,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,82; -1,89</t>
+          <t>-23,58; 446,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,59; 154,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 593,2</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>-11,13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-11,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>-22,84</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>-12,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>126,27%</t>
+          <t>-7,99%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-13,69%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-28,5%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 15,45</t>
+          <t>-20,84; 1,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 9,66</t>
+          <t>-16,87; 5,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 11,23</t>
+          <t>-20,54; -2,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 356,67</t>
+          <t>-35,89; -9,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,21; 114,73</t>
+          <t>-23,07; 1,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 430,37</t>
+          <t>-19,79; 7,18</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-23,85; -3,06</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-42,75; -14,06</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>67,28%</t>
+          <t>13,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>81,65%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,79%</t>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>148,61%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>97,38%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 10,37</t>
+          <t>-5,04; 15,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 11,62</t>
+          <t>-8,53; 10,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 9,07</t>
+          <t>1,15; 12,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 262,59</t>
+          <t>2,75; 26,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 290,51</t>
+          <t>-44,43; 406,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 168,62</t>
+          <t>-43,5; 103,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 555,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 284,95</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 3,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,96; -2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,83; -1,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 4,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,66; -2,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,7; -3,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,96</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>113,24%</t>
+          <t>109,45%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>63,07%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>85,22%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 6,36</t>
+          <t>-1,65; 10,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 10,76</t>
+          <t>1,05; 13,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 17,69</t>
+          <t>-0,31; 9,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 85,55</t>
+          <t>0,59; 14,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 174,03</t>
+          <t>-20,62; 226,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 331,86</t>
+          <t>5,75; 304,45</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 195,76</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 250,09</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-11,91</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>-16,2</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1501,73%</t>
+          <t>-12,2</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>-14,25%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-19,42%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-15,88%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,86; 17,11</t>
+          <t>-12,15; 4,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 6,75</t>
+          <t>-21,0; -3,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,83; 13,08</t>
+          <t>-24,56; -7,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>340,75; —</t>
+          <t>-21,4; -3,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 128,24</t>
+          <t>-14,26; 5,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>18,0; 211,07</t>
+          <t>-24,15; -4,78</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,12; -9,32</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-26,56; -4,67</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-18,35</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-11,4</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-17,68</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-13,91%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-20,98%</t>
+          <t>47,51%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>126,85%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>33,52%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -11,3</t>
+          <t>-6,17; 6,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,56; -1,56</t>
+          <t>-1,94; 11,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -10,28</t>
+          <t>2,15; 17,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -13,02</t>
+          <t>-2,03; 12,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-22,95; -2,36</t>
+          <t>-43,15; 81,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -12,62</t>
+          <t>-15,88; 177,26</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 337,21</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 120,43</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>81,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>115,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>152,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,75; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3,52; 16,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4,97; 15,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,65; 248,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,22; 257,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>48,36; 331,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>1473,82%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>79,78%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>230,64%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 4,01</t>
+          <t>7,98; 17,09</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 13,55</t>
+          <t>-8,46; 7,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 9,71</t>
+          <t>1,24; 12,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-79,31; 100,45</t>
+          <t>4,72; 16,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 325,15</t>
+          <t>258,65; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 139,27</t>
+          <t>-57,4; 156,17</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 190,98</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>66,02; 685,62</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-10,9</t>
+          <t>-18,91</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-8,63</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-10,39</t>
+          <t>-17,8</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-12,86%</t>
+          <t>-12,06</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>-13,64%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-21,19%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-16,07%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,56; -0,5</t>
+          <t>-25,76; -12,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 2,77</t>
+          <t>-19,26; -1,56</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,88; -1,13</t>
+          <t>-24,6; -9,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-23,16; -0,88</t>
+          <t>-21,86; 3,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 3,59</t>
+          <t>-27,78; -13,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -1,43</t>
+          <t>-22,3; -2,09</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-28,37; -11,98</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-26,77; 4,44</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>174,7%</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>109,39%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>151,6%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>6,25; 21,31</t>
+          <t>0,75; 12,67</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 11,18</t>
+          <t>3,06; 16,17</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,12; 14,39</t>
+          <t>5,1; 16,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>55,35; 494,28</t>
+          <t>-13,69; 11,82</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-50,81; 141,85</t>
+          <t>4,57; 240,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,04; 181,79</t>
+          <t>22,81; 243,84</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>49,6; 321,17</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-43,62; 84,82</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>179,9%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2,99; 16,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 15,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 8,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>31,59; 597,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 306,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 126,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-15,94</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-17,86%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>77,43%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>33,54%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-15,3%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -5,87</t>
+          <t>-9,79; 4,14</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 16,84</t>
+          <t>-1,25; 12,64</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 11,69</t>
+          <t>-4,7; 9,93</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-30,33; -7,87</t>
+          <t>-14,65; 6,5</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 28,85</t>
+          <t>-76,0; 103,89</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 17,96</t>
+          <t>-18,62; 267,08</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-33,48; 129,98</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-57,08; 56,8</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-8,45</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>-13,18%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-5,22%</t>
+          <t>-10,48%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-13,42%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 14,99</t>
+          <t>-21,14; -1,66</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 11,63</t>
+          <t>-18,15; 3,99</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 7,34</t>
+          <t>-18,81; -1,23</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 204,88</t>
+          <t>-15,92; 8,47</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-65,32; 145,23</t>
+          <t>-23,91; -2,38</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-53,68; 66,52</t>
+          <t>-21,67; 4,6</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-23,52; -2,65</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 13,46</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>132,12%</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>167,7%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>23,83%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>61,04%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>55,17%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,57</t>
+          <t>5,3; 19,98</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,45</t>
+          <t>-7,88; 11,07</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,98</t>
+          <t>0,56; 13,98</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>60,31; 244,41</t>
+          <t>-1,93; 15,86</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>6,03; 100,06</t>
+          <t>48,0; 441,09</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>14,22; 83,75</t>
+          <t>-47,41; 133,97</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 161,41</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-14,25; 185,64</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-12,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-7,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-14,62%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -8,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -3,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-14,34; -6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -9,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -4,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -8,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>152,97%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>62,02%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>73,54%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,76</t>
+          <t>2,33; 15,85</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 7,38</t>
+          <t>-2,42; 16,11</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,25</t>
+          <t>-6,3; 7,98</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>18,82; 103,78</t>
+          <t>-3,43; 12,06</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 74,66</t>
+          <t>9,42; 445,96</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>20,86; 108,3</t>
+          <t>-22,1; 311,54</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-41,05; 113,1</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-41,29; 371,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-15,48</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-8,18</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-8,93</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-18,85%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-12,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-25,67; -4,79</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-20,36; 10,73</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 6,91</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-23,22; 6,51</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-29,99; -6,28</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-24,77; 15,4</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-16,72; 10,13</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-28,93; 10,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>6,31</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>53,11%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 16,83</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 12,63</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 10,66</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; 16,58</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-13,08; 213,88</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-60,52; 151,26</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-38,92; 104,82</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-33,7; 111,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>122,96%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>50,26%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>44,75%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>44,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 9,39</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 7,48</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 7,54</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 7,29</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>63,63; 224,49</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 102,41</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 85,44</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 93,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-12,36</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-8,3</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-11,11</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-9,83</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-14,6%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-10,48%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-13,92%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-13,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; -8,49</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; -3,56</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-15,18; -7,14</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; -4,16</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-18,87; -10,21</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-15,68; -4,63</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-18,4; -9,07</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-20,13; -6,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>57,81%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>65,51%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>31,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 9,12</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 7,3</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 9,6</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 9,94</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>23,67; 109,62</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 74,99</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 111,92</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 65,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
